--- a/Finance_Data/2019/Sept_2019.xlsx
+++ b/Finance_Data/2019/Sept_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\Finance_Analysis_PowerBI\Finance_Data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A019C5-7536-4F77-8D4A-717C5483FE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05A740-A0F9-4850-A933-4A870DE85970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-660" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13245" yWindow="-585" windowWidth="13575" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>DATE</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Superstore</t>
   </si>
   <si>
-    <t>Bough rice cooker</t>
-  </si>
-  <si>
     <t>Dollarama</t>
   </si>
   <si>
@@ -126,12 +123,6 @@
     <t>Had a massage from Garner B. today for an hour. Talked about his powerlifting history, and his role at the VIVO gym in Calgary. He showed me some pictures/videos of him and his wife afterwards lifting. Invited me to come to VIVO.</t>
   </si>
   <si>
-    <t>Cookware</t>
-  </si>
-  <si>
-    <t>Returned the rice cooker</t>
-  </si>
-  <si>
     <t>Coffee Company</t>
   </si>
   <si>
@@ -178,6 +169,9 @@
   </si>
   <si>
     <t>Bought coffee for Simon as well</t>
+  </si>
+  <si>
+    <t>Bough rice cooker, then returned later.</t>
   </si>
 </sst>
 </file>
@@ -539,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +645,11 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>-287.52</v>
+        <f>-287.52+68.23</f>
+        <v>-219.28999999999996</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,10 +713,10 @@
         <v>43712</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
       </c>
       <c r="D12">
         <v>-4.54</v>
@@ -732,10 +727,10 @@
         <v>43711</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
       </c>
       <c r="D13">
         <v>-5.51</v>
@@ -746,10 +741,10 @@
         <v>43713</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
       </c>
       <c r="D14">
         <v>-44.68</v>
@@ -760,7 +755,7 @@
         <v>43714</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -791,13 +786,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>-11.54</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,10 +800,10 @@
         <v>43714</v>
       </c>
       <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
       </c>
       <c r="D18">
         <v>-35</v>
@@ -847,16 +842,16 @@
         <v>43711</v>
       </c>
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
       </c>
       <c r="D21">
         <v>-20.81</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -901,7 +896,7 @@
         <v>-94.19</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,10 +904,10 @@
         <v>43719</v>
       </c>
       <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
         <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
       </c>
       <c r="D25">
         <v>-5.51</v>
@@ -937,242 +932,238 @@
         <v>43718</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>-90</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43716</v>
+        <v>43723</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <f>64.98*1.05</f>
-        <v>68.229000000000013</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43723</v>
+        <v>43721</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>-5.7</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43721</v>
+        <v>43722</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>-8.16</v>
+        <v>-75.59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43722</v>
+        <v>43721</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>-75.59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43721</v>
+        <v>43722</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>-5.51</v>
+        <v>-80.78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43722</v>
+        <v>43725</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>-80.78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
+        <v>-46.26</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43725</v>
+        <v>43728</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>-46.26</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43728</v>
+        <v>43729</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>-5.7</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43729</v>
+        <v>43724</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>-5.36</v>
+        <v>-5.51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43724</v>
+        <v>43729</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>-5.51</v>
+        <v>-67.28</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43729</v>
+        <v>43724</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>-67.28</v>
+        <v>-546</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43724</v>
+        <v>43728</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>-546</v>
-      </c>
-      <c r="F39" t="s">
-        <v>40</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43728</v>
+        <v>43727</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40">
-        <v>-3.4</v>
+        <v>-14.33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43727</v>
+        <v>43726</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>-14.33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43726</v>
+        <v>43730</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D42">
-        <v>-5.7</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,44 +1171,44 @@
         <v>43730</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>-11.95</v>
+        <v>-14.59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43730</v>
+        <v>43733</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>-14.59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>45</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43733</v>
+        <v>43734</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45">
-        <v>-11.5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,13 +1216,13 @@
         <v>43734</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>-8</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,13 +1230,13 @@
         <v>43734</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D47">
-        <v>-4.33</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,27 +1244,27 @@
         <v>43734</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>-6.71</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43734</v>
+        <v>43735</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>-2.76</v>
+        <v>-21.91</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,43 +1272,29 @@
         <v>43735</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>-21.91</v>
+        <v>-3.03</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43735</v>
+        <v>43737</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>-3.03</v>
-      </c>
-      <c r="F51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>43737</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52">
         <v>-5.36</v>
       </c>
     </row>
